--- a/data/raw/Real_Disposable_Personal_Income_data.xlsx
+++ b/data/raw/Real_Disposable_Personal_Income_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="461">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -27,78 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11226.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11229.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11268.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11304.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11352.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11375.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11387.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11405.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11365.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11428.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11500.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11535.2</t>
   </si>
   <si>
     <t xml:space="preserve">2006-01-01</t>
@@ -5004,174 +4932,6 @@
         <v>460</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>4</v>
-      </c>
-      <c r="B230" t="s">
-        <v>4</v>
-      </c>
-      <c r="C230" t="s">
-        <v>461</v>
-      </c>
-      <c r="D230" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>463</v>
-      </c>
-      <c r="D231" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>465</v>
-      </c>
-      <c r="D232" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>467</v>
-      </c>
-      <c r="D233" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>469</v>
-      </c>
-      <c r="D234" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>471</v>
-      </c>
-      <c r="D235" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>473</v>
-      </c>
-      <c r="D236" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>475</v>
-      </c>
-      <c r="D237" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>477</v>
-      </c>
-      <c r="D238" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>479</v>
-      </c>
-      <c r="D239" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>481</v>
-      </c>
-      <c r="D240" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>483</v>
-      </c>
-      <c r="D241" t="s">
-        <v>484</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
